--- a/actiTime/data/Book1.xlsx
+++ b/actiTime/data/Book1.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QSPIDERS\Project_actiTime_Ninad\actiTime\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559307E-08EB-415B-A226-3AB5CC5A64F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223D025-4E9A-4F9F-8F45-83922E76274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>abcd</t>
   </si>
@@ -57,6 +56,12 @@
   </si>
   <si>
     <t>https://demo.actitime.com/login.do</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>TATA</t>
   </si>
 </sst>
 </file>
@@ -387,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -446,10 +451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F183467B-4E3F-4AEB-9A52-61314CCB3147}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,6 +471,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/actiTime/data/Book1.xlsx
+++ b/actiTime/data/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QSPIDERS\Project_actiTime_Ninad\actiTime\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223D025-4E9A-4F9F-8F45-83922E76274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB894B-59B9-4C9B-BAE8-226EDCF1DD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="description" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>abcd</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>TATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninad </t>
+  </si>
+  <si>
+    <t>Karlekar</t>
+  </si>
+  <si>
+    <t>ninadkarlekar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -453,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F183467B-4E3F-4AEB-9A52-61314CCB3147}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -482,4 +492,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C460CA-175D-4B47-863C-8856F1AE983C}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{E4CE0A85-D436-4DEC-9ADA-FFD2BFB20746}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/actiTime/data/Book1.xlsx
+++ b/actiTime/data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QSPIDERS\Project_actiTime_Ninad\actiTime\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFB894B-59B9-4C9B-BAE8-226EDCF1DD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2815CD-A56B-4670-B83F-68C21E04B92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>abcd</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ninadkarlekar@gmail.com</t>
+  </si>
+  <si>
+    <t>Ninad</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,6 +452,14 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C460CA-175D-4B47-863C-8856F1AE983C}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
